--- a/rogueGame/GameDriver/compSheet.xlsx
+++ b/rogueGame/GameDriver/compSheet.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="expSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="attack" sheetId="2" r:id="rId2"/>
+    <sheet name="speed" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="新建文本文档" localSheetId="0">expSheet!$A$3:$B$61</definedName>
   </definedNames>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>三次项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修正值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拟合偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,13 +85,53 @@
     <t>经验数值修正表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>等级差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值修正参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷/等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔周期（100ms）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级差攻击修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除数偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -134,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -316,20 +357,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -351,12 +419,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,63 +508,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>对比曲线</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1702,9 +1765,376 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>attack!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>attack!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49658530379140947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53259180100689718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57120906384881487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.612626394184416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65704681981505675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70468808971871344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75578374145572547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81058424597018708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86935823539880586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93239381990594827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0725081812542165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1502737988572274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2336780599567432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3231298123374369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4190675485932573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5219615556186339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6323162199553791</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7506725002961012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8776105792643434</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0137527074704766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5092-4B90-814D-87B9506FF345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="598902576"/>
+        <c:axId val="598902904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="598902576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598902904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="598902904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598902576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1712,27 +2142,499 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>speed!$A$3:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>speed!$C$3:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB9B-41C6-BBED-1BC4E5DB2EE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="602340000"/>
+        <c:axId val="604223168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="602340000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604223168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="604223168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602340000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1810,7 +2712,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2365,6 +4379,597 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3D18AD-4D2B-4631-82E7-05095F924551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E8C861-7D73-4757-8EC0-07BE878507A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="attack"/>
+      <sheetName val="speed"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>-10</v>
+          </cell>
+          <cell r="B2">
+            <v>0.49658530379140947</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>-9</v>
+          </cell>
+          <cell r="B3">
+            <v>0.53259180100689718</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>-8</v>
+          </cell>
+          <cell r="B4">
+            <v>0.57120906384881487</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>-7</v>
+          </cell>
+          <cell r="B5">
+            <v>0.612626394184416</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>-6</v>
+          </cell>
+          <cell r="B6">
+            <v>0.65704681981505675</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>-5</v>
+          </cell>
+          <cell r="B7">
+            <v>0.70468808971871344</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>-4</v>
+          </cell>
+          <cell r="B8">
+            <v>0.75578374145572547</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>-3</v>
+          </cell>
+          <cell r="B9">
+            <v>0.81058424597018708</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>-2</v>
+          </cell>
+          <cell r="B10">
+            <v>0.86935823539880586</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>-1</v>
+          </cell>
+          <cell r="B11">
+            <v>0.93239381990594827</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1</v>
+          </cell>
+          <cell r="B13">
+            <v>1.0725081812542165</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2</v>
+          </cell>
+          <cell r="B14">
+            <v>1.1502737988572274</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>3</v>
+          </cell>
+          <cell r="B15">
+            <v>1.2336780599567432</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>4</v>
+          </cell>
+          <cell r="B16">
+            <v>1.3231298123374369</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>5</v>
+          </cell>
+          <cell r="B17">
+            <v>1.4190675485932573</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>6</v>
+          </cell>
+          <cell r="B18">
+            <v>1.5219615556186339</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>7</v>
+          </cell>
+          <cell r="B19">
+            <v>1.6323162199553791</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>8</v>
+          </cell>
+          <cell r="B20">
+            <v>1.7506725002961012</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>9</v>
+          </cell>
+          <cell r="B21">
+            <v>1.8776105792643434</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>10</v>
+          </cell>
+          <cell r="B22">
+            <v>2.0137527074704766</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1.2</v>
+          </cell>
+          <cell r="C3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1.4</v>
+          </cell>
+          <cell r="C4">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1.6</v>
+          </cell>
+          <cell r="C5">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1.8</v>
+          </cell>
+          <cell r="C6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2</v>
+          </cell>
+          <cell r="C7">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C8">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2.4</v>
+          </cell>
+          <cell r="C9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2.6</v>
+          </cell>
+          <cell r="C10">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.8</v>
+          </cell>
+          <cell r="C11">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>3</v>
+          </cell>
+          <cell r="C12">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>3.2</v>
+          </cell>
+          <cell r="C13">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>3.4</v>
+          </cell>
+          <cell r="C14">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>3.6</v>
+          </cell>
+          <cell r="C15">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>3.8</v>
+          </cell>
+          <cell r="C16">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>4</v>
+          </cell>
+          <cell r="C17">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>4.2</v>
+          </cell>
+          <cell r="C18">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="C19">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="C20">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>4.8</v>
+          </cell>
+          <cell r="C21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>5</v>
+          </cell>
+          <cell r="C22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>5.2</v>
+          </cell>
+          <cell r="C23">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>5.4</v>
+          </cell>
+          <cell r="C24">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>5.6</v>
+          </cell>
+          <cell r="C25">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>5.8</v>
+          </cell>
+          <cell r="C26">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>6</v>
+          </cell>
+          <cell r="C27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>6.2</v>
+          </cell>
+          <cell r="C28">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>6.4</v>
+          </cell>
+          <cell r="C29">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>6.6</v>
+          </cell>
+          <cell r="C30">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>6.8</v>
+          </cell>
+          <cell r="C31">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>7</v>
+          </cell>
+          <cell r="C32">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>7.2</v>
+          </cell>
+          <cell r="C33">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>7.4</v>
+          </cell>
+          <cell r="C34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>7.6</v>
+          </cell>
+          <cell r="C35">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>7.8</v>
+          </cell>
+          <cell r="C36">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>8</v>
+          </cell>
+          <cell r="C37">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="C38">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>8.4</v>
+          </cell>
+          <cell r="C39">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>8.6</v>
+          </cell>
+          <cell r="C40">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="C41">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2636,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2646,42 +5251,43 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -2695,19 +5301,19 @@
         <f>C3+450</f>
         <v>391.06799999999998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>ROUND(D3/100,0)*100</f>
         <v>400</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -2721,19 +5327,19 @@
         <f t="shared" ref="D4:D67" si="1">C4+450</f>
         <v>433.03200000000004</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E67" si="2">ROUND(D4/100,0)*100</f>
         <v>400</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>50.448</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -2747,19 +5353,19 @@
         <f t="shared" si="1"/>
         <v>575.89200000000005</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>-109.38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -2773,19 +5379,19 @@
         <f t="shared" si="1"/>
         <v>819.64800000000002</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -2799,13 +5405,13 @@
         <f t="shared" si="1"/>
         <v>1164.3000000000002</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -2819,13 +5425,13 @@
         <f t="shared" si="1"/>
         <v>1609.848</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -2839,13 +5445,13 @@
         <f t="shared" si="1"/>
         <v>2156.2920000000004</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -2859,13 +5465,13 @@
         <f t="shared" si="1"/>
         <v>2803.6320000000001</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -2879,13 +5485,13 @@
         <f t="shared" si="1"/>
         <v>3551.8679999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -2899,13 +5505,13 @@
         <f t="shared" si="1"/>
         <v>4401</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -2919,13 +5525,13 @@
         <f t="shared" si="1"/>
         <v>5351.0280000000002</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -2939,13 +5545,13 @@
         <f t="shared" si="1"/>
         <v>6401.9519999999993</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -2959,13 +5565,13 @@
         <f t="shared" si="1"/>
         <v>7553.771999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
         <v>7600</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -2979,13 +5585,13 @@
         <f t="shared" si="1"/>
         <v>8806.4880000000012</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="2"/>
         <v>8800</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -2999,13 +5605,13 @@
         <f t="shared" si="1"/>
         <v>10160.099999999999</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="2"/>
         <v>10200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -3019,13 +5625,13 @@
         <f t="shared" si="1"/>
         <v>11614.608</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -3039,13 +5645,13 @@
         <f t="shared" si="1"/>
         <v>13170.011999999999</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>13200</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -3059,13 +5665,13 @@
         <f t="shared" si="1"/>
         <v>14826.312</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>14800</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -3079,13 +5685,13 @@
         <f t="shared" si="1"/>
         <v>16583.508000000002</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>16600</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -3099,13 +5705,13 @@
         <f t="shared" si="1"/>
         <v>18441.600000000002</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>18400</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -3119,13 +5725,13 @@
         <f t="shared" si="1"/>
         <v>20400.588</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="2"/>
         <v>20400</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -3139,13 +5745,13 @@
         <f t="shared" si="1"/>
         <v>22460.471999999998</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="2"/>
         <v>22500</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -3159,13 +5765,13 @@
         <f t="shared" si="1"/>
         <v>24621.252</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="2"/>
         <v>24600</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -3179,13 +5785,13 @@
         <f t="shared" si="1"/>
         <v>26882.928</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -3199,13 +5805,13 @@
         <f t="shared" si="1"/>
         <v>29245.5</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="2"/>
         <v>29200</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -3219,13 +5825,13 @@
         <f t="shared" si="1"/>
         <v>31708.967999999997</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="2"/>
         <v>31700</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -3239,13 +5845,13 @@
         <f t="shared" si="1"/>
         <v>34273.331999999995</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="2"/>
         <v>34300</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -3259,13 +5865,13 @@
         <f t="shared" si="1"/>
         <v>36938.592000000004</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="2"/>
         <v>36900</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -3279,13 +5885,13 @@
         <f t="shared" si="1"/>
         <v>39704.748000000007</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="2"/>
         <v>39700</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -3299,13 +5905,13 @@
         <f t="shared" si="1"/>
         <v>42571.799999999996</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="2"/>
         <v>42600</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -3319,13 +5925,13 @@
         <f t="shared" si="1"/>
         <v>45539.748</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="2"/>
         <v>45500</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -3339,13 +5945,13 @@
         <f t="shared" si="1"/>
         <v>48608.592000000004</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="2"/>
         <v>48600</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -3359,13 +5965,13 @@
         <f t="shared" si="1"/>
         <v>51778.332000000002</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="2"/>
         <v>51800</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="1">
@@ -3379,13 +5985,13 @@
         <f t="shared" si="1"/>
         <v>55048.968000000001</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="2"/>
         <v>55000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -3399,13 +6005,13 @@
         <f t="shared" si="1"/>
         <v>58420.5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="2"/>
         <v>58400</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -3419,13 +6025,13 @@
         <f t="shared" si="1"/>
         <v>61892.928</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="2"/>
         <v>61900</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -3439,13 +6045,13 @@
         <f t="shared" si="1"/>
         <v>65466.252000000008</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -3459,13 +6065,13 @@
         <f t="shared" si="1"/>
         <v>69140.471999999994</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="2"/>
         <v>69100</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="1">
@@ -3479,13 +6085,13 @@
         <f t="shared" si="1"/>
         <v>72915.587999999989</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="2"/>
         <v>72900</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" s="1">
@@ -3499,13 +6105,13 @@
         <f t="shared" si="1"/>
         <v>76791.600000000006</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="2"/>
         <v>76800</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="1">
@@ -3519,13 +6125,13 @@
         <f t="shared" si="1"/>
         <v>80768.508000000002</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="2"/>
         <v>80800</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" s="1">
@@ -3539,13 +6145,13 @@
         <f t="shared" si="1"/>
         <v>84846.311999999991</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="2"/>
         <v>84800</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="1">
@@ -3559,13 +6165,13 @@
         <f t="shared" si="1"/>
         <v>89025.012000000002</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="2"/>
         <v>89000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46" s="1">
@@ -3579,13 +6185,13 @@
         <f t="shared" si="1"/>
         <v>93304.607999999993</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="2"/>
         <v>93300</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" s="1">
@@ -3599,13 +6205,13 @@
         <f t="shared" si="1"/>
         <v>97685.099999999991</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="2"/>
         <v>97700</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" s="1">
@@ -3619,13 +6225,13 @@
         <f t="shared" si="1"/>
         <v>102166.48800000001</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="2"/>
         <v>102200</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" s="1">
@@ -3639,13 +6245,13 @@
         <f t="shared" si="1"/>
         <v>106748.772</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <f t="shared" si="2"/>
         <v>106700</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="1">
@@ -3659,13 +6265,13 @@
         <f t="shared" si="1"/>
         <v>111431.95199999999</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <f t="shared" si="2"/>
         <v>111400</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
       <c r="B51" s="1">
@@ -3679,13 +6285,13 @@
         <f t="shared" si="1"/>
         <v>116216.02800000001</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <f t="shared" si="2"/>
         <v>116200</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
       <c r="B52" s="1">
@@ -3699,13 +6305,13 @@
         <f t="shared" si="1"/>
         <v>121101</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f t="shared" si="2"/>
         <v>121100</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="1">
@@ -3719,13 +6325,13 @@
         <f t="shared" si="1"/>
         <v>126086.86799999999</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <f t="shared" si="2"/>
         <v>126100</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>52</v>
       </c>
       <c r="B54" s="1">
@@ -3739,13 +6345,13 @@
         <f t="shared" si="1"/>
         <v>131173.63199999998</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <f t="shared" si="2"/>
         <v>131200</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>53</v>
       </c>
       <c r="B55" s="1">
@@ -3759,13 +6365,13 @@
         <f t="shared" si="1"/>
         <v>136361.29200000002</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <f t="shared" si="2"/>
         <v>136400</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>54</v>
       </c>
       <c r="B56" s="1">
@@ -3779,13 +6385,13 @@
         <f t="shared" si="1"/>
         <v>141649.848</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <f t="shared" si="2"/>
         <v>141600</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>55</v>
       </c>
       <c r="B57" s="1">
@@ -3799,13 +6405,13 @@
         <f t="shared" si="1"/>
         <v>147039.30000000002</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <f t="shared" si="2"/>
         <v>147000</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>56</v>
       </c>
       <c r="B58" s="1">
@@ -3819,13 +6425,13 @@
         <f t="shared" si="1"/>
         <v>152529.64800000002</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <f t="shared" si="2"/>
         <v>152500</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="1">
@@ -3839,13 +6445,13 @@
         <f t="shared" si="1"/>
         <v>158120.89199999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <f t="shared" si="2"/>
         <v>158100</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
       <c r="B60" s="1">
@@ -3859,13 +6465,13 @@
         <f t="shared" si="1"/>
         <v>163813.03200000001</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <f t="shared" si="2"/>
         <v>163800</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="1">
@@ -3879,17 +6485,17 @@
         <f t="shared" si="1"/>
         <v>169606.068</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <f t="shared" si="2"/>
         <v>169600</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="0"/>
@@ -3899,17 +6505,17 @@
         <f t="shared" si="1"/>
         <v>175500</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <f t="shared" si="2"/>
         <v>175500</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="0"/>
@@ -3919,17 +6525,17 @@
         <f t="shared" si="1"/>
         <v>181494.82800000001</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <f t="shared" si="2"/>
         <v>181500</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="0"/>
@@ -3939,17 +6545,17 @@
         <f t="shared" si="1"/>
         <v>187590.552</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <f t="shared" si="2"/>
         <v>187600</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="0"/>
@@ -3959,17 +6565,17 @@
         <f t="shared" si="1"/>
         <v>193787.17199999999</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <f t="shared" si="2"/>
         <v>193800</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" si="0"/>
@@ -3979,17 +6585,17 @@
         <f t="shared" si="1"/>
         <v>200084.68799999999</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <f t="shared" si="2"/>
         <v>200100</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" si="0"/>
@@ -3999,17 +6605,17 @@
         <f t="shared" si="1"/>
         <v>206483.09999999998</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <f t="shared" si="2"/>
         <v>206500</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" ref="C68:C102" si="3">$G$3*POWER(A68,3)+$G$4*POWER(A68,2)+$G$5*A68+$G$6</f>
@@ -4019,17 +6625,17 @@
         <f t="shared" ref="D68:D102" si="4">C68+450</f>
         <v>212982.40800000002</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <f t="shared" ref="E68:E102" si="5">ROUND(D68/100,0)*100</f>
         <v>213000</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" si="3"/>
@@ -4039,17 +6645,17 @@
         <f t="shared" si="4"/>
         <v>219582.61200000002</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <f t="shared" si="5"/>
         <v>219600</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" si="3"/>
@@ -4059,17 +6665,17 @@
         <f t="shared" si="4"/>
         <v>226283.712</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <f t="shared" si="5"/>
         <v>226300</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="3">
         <f t="shared" si="3"/>
@@ -4079,17 +6685,17 @@
         <f t="shared" si="4"/>
         <v>233085.70800000001</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <f t="shared" si="5"/>
         <v>233100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3">
         <f t="shared" si="3"/>
@@ -4099,17 +6705,17 @@
         <f t="shared" si="4"/>
         <v>239988.6</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <f t="shared" si="5"/>
         <v>240000</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3">
         <f t="shared" si="3"/>
@@ -4119,17 +6725,17 @@
         <f t="shared" si="4"/>
         <v>246992.38799999998</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <f t="shared" si="5"/>
         <v>247000</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="3">
         <f t="shared" si="3"/>
@@ -4139,17 +6745,17 @@
         <f t="shared" si="4"/>
         <v>254097.07200000001</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <f t="shared" si="5"/>
         <v>254100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="3">
         <f t="shared" si="3"/>
@@ -4159,17 +6765,17 @@
         <f t="shared" si="4"/>
         <v>261302.652</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <f t="shared" si="5"/>
         <v>261300</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="3">
         <f t="shared" si="3"/>
@@ -4179,17 +6785,17 @@
         <f t="shared" si="4"/>
         <v>268609.12800000003</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <f t="shared" si="5"/>
         <v>268600</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="3">
         <f t="shared" si="3"/>
@@ -4199,17 +6805,17 @@
         <f t="shared" si="4"/>
         <v>276016.5</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <f t="shared" si="5"/>
         <v>276000</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3">
         <f t="shared" si="3"/>
@@ -4219,17 +6825,17 @@
         <f t="shared" si="4"/>
         <v>283524.76799999998</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <f t="shared" si="5"/>
         <v>283500</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="3">
         <f t="shared" si="3"/>
@@ -4239,17 +6845,17 @@
         <f t="shared" si="4"/>
         <v>291133.93199999997</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <f t="shared" si="5"/>
         <v>291100</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="3">
         <f t="shared" si="3"/>
@@ -4259,17 +6865,17 @@
         <f t="shared" si="4"/>
         <v>298843.99199999997</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <f t="shared" si="5"/>
         <v>298800</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" s="3">
         <f t="shared" si="3"/>
@@ -4279,17 +6885,17 @@
         <f t="shared" si="4"/>
         <v>306654.94799999997</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="6">
         <f t="shared" si="5"/>
         <v>306700</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="3">
         <f t="shared" si="3"/>
@@ -4299,17 +6905,17 @@
         <f t="shared" si="4"/>
         <v>314566.8</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="6">
         <f t="shared" si="5"/>
         <v>314600</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="3">
         <f t="shared" si="3"/>
@@ -4319,17 +6925,17 @@
         <f t="shared" si="4"/>
         <v>322579.54799999995</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="6">
         <f t="shared" si="5"/>
         <v>322600</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="3">
         <f t="shared" si="3"/>
@@ -4339,17 +6945,17 @@
         <f t="shared" si="4"/>
         <v>330693.19200000004</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <f t="shared" si="5"/>
         <v>330700</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3">
         <f t="shared" si="3"/>
@@ -4359,17 +6965,17 @@
         <f t="shared" si="4"/>
         <v>338907.73200000002</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <f t="shared" si="5"/>
         <v>338900</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" si="3"/>
@@ -4379,17 +6985,17 @@
         <f t="shared" si="4"/>
         <v>347223.16800000001</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <f t="shared" si="5"/>
         <v>347200</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" si="3"/>
@@ -4399,17 +7005,17 @@
         <f t="shared" si="4"/>
         <v>355639.5</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <f t="shared" si="5"/>
         <v>355600</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" si="3"/>
@@ -4419,17 +7025,17 @@
         <f t="shared" si="4"/>
         <v>364156.728</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <f t="shared" si="5"/>
         <v>364200</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" s="3">
         <f t="shared" si="3"/>
@@ -4439,17 +7045,17 @@
         <f t="shared" si="4"/>
         <v>372774.85200000001</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <f t="shared" si="5"/>
         <v>372800</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" si="3"/>
@@ -4459,17 +7065,17 @@
         <f t="shared" si="4"/>
         <v>381493.87199999997</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <f t="shared" si="5"/>
         <v>381500</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="3">
         <f t="shared" si="3"/>
@@ -4479,17 +7085,17 @@
         <f t="shared" si="4"/>
         <v>390313.788</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <f t="shared" si="5"/>
         <v>390300</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="3">
         <f t="shared" si="3"/>
@@ -4499,17 +7105,17 @@
         <f t="shared" si="4"/>
         <v>399234.6</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <f t="shared" si="5"/>
         <v>399200</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" si="3"/>
@@ -4519,17 +7125,17 @@
         <f t="shared" si="4"/>
         <v>408256.30799999996</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <f t="shared" si="5"/>
         <v>408300</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" si="3"/>
@@ -4539,17 +7145,17 @@
         <f t="shared" si="4"/>
         <v>417378.91200000001</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <f t="shared" si="5"/>
         <v>417400</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" si="3"/>
@@ -4559,17 +7165,17 @@
         <f t="shared" si="4"/>
         <v>426602.41199999995</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <f t="shared" si="5"/>
         <v>426600</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" si="3"/>
@@ -4579,17 +7185,17 @@
         <f t="shared" si="4"/>
         <v>435926.80800000002</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <f t="shared" si="5"/>
         <v>435900</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="3">
         <f t="shared" si="3"/>
@@ -4599,17 +7205,17 @@
         <f t="shared" si="4"/>
         <v>445352.10000000003</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <f t="shared" si="5"/>
         <v>445400</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" si="3"/>
@@ -4619,17 +7225,17 @@
         <f t="shared" si="4"/>
         <v>454878.288</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <f t="shared" si="5"/>
         <v>454900</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" si="3"/>
@@ -4639,17 +7245,17 @@
         <f t="shared" si="4"/>
         <v>464505.37200000003</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <f t="shared" si="5"/>
         <v>464500</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3">
         <f t="shared" si="3"/>
@@ -4659,17 +7265,17 @@
         <f t="shared" si="4"/>
         <v>474233.35200000001</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <f t="shared" si="5"/>
         <v>474200</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" si="3"/>
@@ -4679,27 +7285,27 @@
         <f t="shared" si="4"/>
         <v>484062.228</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="6">
         <f t="shared" si="5"/>
         <v>484100</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <v>100</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="16">
+      <c r="B102" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="15">
         <f t="shared" si="3"/>
         <v>493542</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="15">
         <f t="shared" si="4"/>
         <v>493992</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <f t="shared" si="5"/>
         <v>494000</v>
       </c>
@@ -4714,4 +7320,826 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>-10</v>
+      </c>
+      <c r="B3" s="24">
+        <f>EXP(A3*$D$3)</f>
+        <v>0.49658530379140947</v>
+      </c>
+      <c r="D3" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>-9</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B23" si="0">EXP(A4*$D$3)</f>
+        <v>0.53259180100689718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>-8</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.57120906384881487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.612626394184416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.65704681981505675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>-5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.70468808971871344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>-4</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.75578374145572547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.81058424597018708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>-2</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.86935823539880586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.93239381990594827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>0</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="0"/>
+        <v>1.0725081812542165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1502737988572274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>3</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2336780599567432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>4</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="0"/>
+        <v>1.3231298123374369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4190675485932573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5219615556186339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6323162199553791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>8</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7506725002961012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>9</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8776105792643434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="0"/>
+        <v>2.0137527074704766</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="23.125" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>LN(A3+$E$3)+$E$4</f>
+        <v>0.86314718055994533</v>
+      </c>
+      <c r="C3" s="24">
+        <f>ROUND($E$5/B3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B42" si="0">LN(A4+$E$3)+$E$4</f>
+        <v>0.95845736036427032</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:C42" si="1">ROUND($E$5/B4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0454687373538998</v>
+      </c>
+      <c r="C5" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1255114450274364</v>
+      </c>
+      <c r="C6" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1996194171811581</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2686122886681097</v>
+      </c>
+      <c r="C8" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3331508098056808</v>
+      </c>
+      <c r="C9" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3937754316221156</v>
+      </c>
+      <c r="C10" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>2.6</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4509338454620642</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5050010667323399</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5562943611198905</v>
+      </c>
+      <c r="C13" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6050845252893227</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6516045409242155</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6960563034950491</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>3.8</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7386159179138452</v>
+      </c>
+      <c r="C17" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7794379124341002</v>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8186586255873816</v>
+      </c>
+      <c r="C19" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8563989535702288</v>
+      </c>
+      <c r="C20" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8927665977411035</v>
+      </c>
+      <c r="C21" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>4.8</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9278579175523736</v>
+      </c>
+      <c r="C22" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9617594692280549</v>
+      </c>
+      <c r="C23" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9945492920510459</v>
+      </c>
+      <c r="C24" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0262979903656264</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>5.6</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0570696490323797</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>5.8</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.086922612182061</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1159101490553134</v>
+      </c>
+      <c r="C28" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1440810260220098</v>
+      </c>
+      <c r="C29" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1714800002101242</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>6.6</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1981482472922851</v>
+      </c>
+      <c r="C31" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>6.8</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2241237336955462</v>
+      </c>
+      <c r="C32" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2494415416798357</v>
+      </c>
+      <c r="C33" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2741341542702074</v>
+      </c>
+      <c r="C34" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>7.4</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2982317058492678</v>
+      </c>
+      <c r="C35" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>7.6</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3217622032594618</v>
+      </c>
+      <c r="C36" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>7.8</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3447517214841609</v>
+      </c>
+      <c r="C37" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3672245773362195</v>
+      </c>
+      <c r="C38" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3892034840549945</v>
+      </c>
+      <c r="C39" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>8.4</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4107096892759583</v>
+      </c>
+      <c r="C40" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>8.6</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4317630984737906</v>
+      </c>
+      <c r="C41" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B42" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4523823856765263</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/rogueGame/GameDriver/compSheet.xlsx
+++ b/rogueGame/GameDriver/compSheet.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="expSheet" sheetId="1" r:id="rId1"/>
     <sheet name="attack" sheetId="2" r:id="rId2"/>
     <sheet name="speed" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="新建文本文档" localSheetId="0">expSheet!$A$3:$B$61</definedName>
   </definedNames>
@@ -423,23 +420,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,16 +450,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1928,67 +1925,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.49658530379140947</c:v>
+                  <c:v>0.74081822068171788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53259180100689718</c:v>
+                  <c:v>0.76337949433685315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57120906384881487</c:v>
+                  <c:v>0.78662786106655347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.612626394184416</c:v>
+                  <c:v>0.81058424597018708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65704681981505675</c:v>
+                  <c:v>0.835270211411272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70468808971871344</c:v>
+                  <c:v>0.86070797642505781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75578374145572547</c:v>
+                  <c:v>0.88692043671715748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81058424597018708</c:v>
+                  <c:v>0.91393118527122819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86935823539880586</c:v>
+                  <c:v>0.94176453358424872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93239381990594827</c:v>
+                  <c:v>0.97044553354850815</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0725081812542165</c:v>
+                  <c:v>1.0304545339535169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1502737988572274</c:v>
+                  <c:v>1.0618365465453596</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1.0941742837052104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1274968515793757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1618342427282831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1972173631218102</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.2336780599567432</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3231298123374369</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4190675485932573</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5219615556186339</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6323162199553791</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7506725002961012</c:v>
+                  <c:v>1.2712491503214047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8776105792643434</c:v>
+                  <c:v>1.3099644507332473</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0137527074704766</c:v>
+                  <c:v>1.3498588075760032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,511 +4464,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="attack"/>
-      <sheetName val="speed"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>-10</v>
-          </cell>
-          <cell r="B2">
-            <v>0.49658530379140947</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>-9</v>
-          </cell>
-          <cell r="B3">
-            <v>0.53259180100689718</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>-8</v>
-          </cell>
-          <cell r="B4">
-            <v>0.57120906384881487</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>-7</v>
-          </cell>
-          <cell r="B5">
-            <v>0.612626394184416</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>-6</v>
-          </cell>
-          <cell r="B6">
-            <v>0.65704681981505675</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>-5</v>
-          </cell>
-          <cell r="B7">
-            <v>0.70468808971871344</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>-4</v>
-          </cell>
-          <cell r="B8">
-            <v>0.75578374145572547</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>-3</v>
-          </cell>
-          <cell r="B9">
-            <v>0.81058424597018708</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>-2</v>
-          </cell>
-          <cell r="B10">
-            <v>0.86935823539880586</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>-1</v>
-          </cell>
-          <cell r="B11">
-            <v>0.93239381990594827</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0</v>
-          </cell>
-          <cell r="B12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1</v>
-          </cell>
-          <cell r="B13">
-            <v>1.0725081812542165</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2</v>
-          </cell>
-          <cell r="B14">
-            <v>1.1502737988572274</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3</v>
-          </cell>
-          <cell r="B15">
-            <v>1.2336780599567432</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>4</v>
-          </cell>
-          <cell r="B16">
-            <v>1.3231298123374369</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>5</v>
-          </cell>
-          <cell r="B17">
-            <v>1.4190675485932573</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>6</v>
-          </cell>
-          <cell r="B18">
-            <v>1.5219615556186339</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>7</v>
-          </cell>
-          <cell r="B19">
-            <v>1.6323162199553791</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>8</v>
-          </cell>
-          <cell r="B20">
-            <v>1.7506725002961012</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>9</v>
-          </cell>
-          <cell r="B21">
-            <v>1.8776105792643434</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>10</v>
-          </cell>
-          <cell r="B22">
-            <v>2.0137527074704766</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1.2</v>
-          </cell>
-          <cell r="C3">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1.4</v>
-          </cell>
-          <cell r="C4">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1.6</v>
-          </cell>
-          <cell r="C5">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1.8</v>
-          </cell>
-          <cell r="C6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2</v>
-          </cell>
-          <cell r="C7">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2.4</v>
-          </cell>
-          <cell r="C9">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2.6</v>
-          </cell>
-          <cell r="C10">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2.8</v>
-          </cell>
-          <cell r="C11">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>3</v>
-          </cell>
-          <cell r="C12">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>3.2</v>
-          </cell>
-          <cell r="C13">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>3.4</v>
-          </cell>
-          <cell r="C14">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3.6</v>
-          </cell>
-          <cell r="C15">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>3.8</v>
-          </cell>
-          <cell r="C16">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>4</v>
-          </cell>
-          <cell r="C17">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>4.2</v>
-          </cell>
-          <cell r="C18">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="C19">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="C20">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>4.8</v>
-          </cell>
-          <cell r="C21">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>5</v>
-          </cell>
-          <cell r="C22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>5.2</v>
-          </cell>
-          <cell r="C23">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>5.4</v>
-          </cell>
-          <cell r="C24">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>5.6</v>
-          </cell>
-          <cell r="C25">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>5.8</v>
-          </cell>
-          <cell r="C26">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>6</v>
-          </cell>
-          <cell r="C27">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>6.2</v>
-          </cell>
-          <cell r="C28">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>6.4</v>
-          </cell>
-          <cell r="C29">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>6.6</v>
-          </cell>
-          <cell r="C30">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>6.8</v>
-          </cell>
-          <cell r="C31">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>7</v>
-          </cell>
-          <cell r="C32">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>7.2</v>
-          </cell>
-          <cell r="C33">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>7.4</v>
-          </cell>
-          <cell r="C34">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>7.6</v>
-          </cell>
-          <cell r="C35">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>7.8</v>
-          </cell>
-          <cell r="C36">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>8</v>
-          </cell>
-          <cell r="C37">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="C38">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>8.4</v>
-          </cell>
-          <cell r="C39">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>8.6</v>
-          </cell>
-          <cell r="C40">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>8.8000000000000007</v>
-          </cell>
-          <cell r="C41">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -5255,15 +4747,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -5281,10 +4773,10 @@
       <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -7326,8 +6818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7336,12 +6828,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -7350,201 +6842,201 @@
       <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>-10</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <f>EXP(A3*$D$3)</f>
-        <v>0.49658530379140947</v>
-      </c>
-      <c r="D3" s="28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.74081822068171788</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>-9</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <f t="shared" ref="B4:B23" si="0">EXP(A4*$D$3)</f>
-        <v>0.53259180100689718</v>
+        <v>0.76337949433685315</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>-8</v>
       </c>
-      <c r="B5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.57120906384881487</v>
+      <c r="B5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78662786106655347</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>-7</v>
       </c>
-      <c r="B6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.612626394184416</v>
+      <c r="B6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.81058424597018708</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>-6</v>
       </c>
-      <c r="B7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.65704681981505675</v>
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.835270211411272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>-5</v>
       </c>
-      <c r="B8" s="24">
-        <f t="shared" si="0"/>
-        <v>0.70468808971871344</v>
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.86070797642505781</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>-4</v>
       </c>
-      <c r="B9" s="24">
-        <f t="shared" si="0"/>
-        <v>0.75578374145572547</v>
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.88692043671715748</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="19">
         <v>-3</v>
       </c>
-      <c r="B10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.81058424597018708</v>
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91393118527122819</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="19">
         <v>-2</v>
       </c>
-      <c r="B11" s="24">
-        <f t="shared" si="0"/>
-        <v>0.86935823539880586</v>
+      <c r="B11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.94176453358424872</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>-1</v>
       </c>
-      <c r="B12" s="24">
-        <f t="shared" si="0"/>
-        <v>0.93239381990594827</v>
+      <c r="B12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.97044553354850815</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>0</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="24">
-        <f t="shared" si="0"/>
-        <v>1.0725081812542165</v>
+      <c r="B14" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0304545339535169</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="24">
-        <f t="shared" si="0"/>
-        <v>1.1502737988572274</v>
+      <c r="B15" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0618365465453596</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>3</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0941742837052104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1274968515793757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1618342427282831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1972173631218102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>1.2336780599567432</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>4</v>
-      </c>
-      <c r="B17" s="24">
-        <f t="shared" si="0"/>
-        <v>1.3231298123374369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24">
-        <f t="shared" si="0"/>
-        <v>1.4190675485932573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>6</v>
-      </c>
-      <c r="B19" s="24">
-        <f t="shared" si="0"/>
-        <v>1.5219615556186339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>7</v>
-      </c>
-      <c r="B20" s="24">
-        <f t="shared" si="0"/>
-        <v>1.6323162199553791</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="19">
         <v>8</v>
       </c>
-      <c r="B21" s="24">
-        <f t="shared" si="0"/>
-        <v>1.7506725002961012</v>
+      <c r="B21" s="20">
+        <f t="shared" si="0"/>
+        <v>1.2712491503214047</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="19">
         <v>9</v>
       </c>
-      <c r="B22" s="24">
-        <f t="shared" si="0"/>
-        <v>1.8776105792643434</v>
+      <c r="B22" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3099644507332473</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>10</v>
       </c>
-      <c r="B23" s="26">
-        <f t="shared" si="0"/>
-        <v>2.0137527074704766</v>
+      <c r="B23" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3498588075760032</v>
       </c>
     </row>
   </sheetData>
@@ -7562,23 +7054,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="23.125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -7590,545 +7082,545 @@
       <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <f>LN(A3+$E$3)+$E$4</f>
         <v>0.86314718055994533</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <f>ROUND($E$5/B3,0)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B42" si="0">LN(A4+$E$3)+$E$4</f>
         <v>0.95845736036427032</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C42" si="1">ROUND($E$5/B4,0)</f>
         <v>10</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="25">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>1.4</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>1.0454687373538998</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>1.6</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>1.1255114450274364</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>1.8</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>1.1996194171811581</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>2</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>1.2686122886681097</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>1.3331508098056808</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="19">
         <v>2.4</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>1.3937754316221156</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="19">
         <v>2.6</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>1.4509338454620642</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>2.8</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>1.5050010667323399</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>3</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>1.5562943611198905</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>3.2</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>1.6050845252893227</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>3.4</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>1.6516045409242155</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>3.6</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>1.6960563034950491</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="19">
         <v>3.8</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>1.7386159179138452</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="19">
         <v>4</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>1.7794379124341002</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="19">
         <v>4.2</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>1.8186586255873816</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="19">
         <v>4.4000000000000004</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>1.8563989535702288</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="19">
         <v>4.5999999999999996</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>1.8927665977411035</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="19">
         <v>4.8</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>1.9278579175523736</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="19">
         <v>5</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>1.9617594692280549</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="19">
         <v>5.2</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>1.9945492920510459</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="A25" s="19">
         <v>5.4</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>2.0262979903656264</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="19">
         <v>5.6</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>2.0570696490323797</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="19">
         <v>5.8</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>2.086922612182061</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="19">
         <v>6</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>2.1159101490553134</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="19">
         <v>6.2</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>2.1440810260220098</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="19">
         <v>6.4</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>2.1714800002101242</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="19">
         <v>6.6</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>2.1981482472922851</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="19">
         <v>6.8</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>2.2241237336955462</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="19">
         <v>7</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>2.2494415416798357</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="19">
         <v>7.2</v>
       </c>
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>2.2741341542702074</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="19">
         <v>7.4</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>2.2982317058492678</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
+      <c r="A36" s="19">
         <v>7.6</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>2.3217622032594618</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="19">
         <v>7.8</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>2.3447517214841609</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+      <c r="A38" s="19">
         <v>8</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>2.3672245773362195</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="A39" s="19">
         <v>8.1999999999999993</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>2.3892034840549945</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="19">
         <v>8.4</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>2.4107096892759583</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="19">
         <v>8.6</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>2.4317630984737906</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="21">
         <v>8.8000000000000007</v>
       </c>
       <c r="B42" s="14">
         <f t="shared" si="0"/>
         <v>2.4523823856765263</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
